--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>SlNo</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>5 hrs+revision</t>
+  </si>
+  <si>
+    <t>9.6.21</t>
+  </si>
+  <si>
+    <t>HTML,</t>
+  </si>
+  <si>
+    <t>Login,Registration,paragraph creation</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
   </si>
 </sst>
 </file>
@@ -755,7 +767,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,11 +966,21 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>SlNo</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>6 hrs</t>
+  </si>
+  <si>
+    <t>10.6.21</t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
 </sst>
 </file>
@@ -767,7 +773,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,11 +990,21 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -146,6 +146,33 @@
   </si>
   <si>
     <t>HTML</t>
+  </si>
+  <si>
+    <t>11.6.21</t>
+  </si>
+  <si>
+    <t>5 pages interlinked</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>14.6.21</t>
+  </si>
+  <si>
+    <t>Learn concepts of servlets and html using J2EE</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>Java training</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
 </sst>
 </file>
@@ -773,7 +800,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,25 +1034,49 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>SlNo</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>4hrs</t>
+  </si>
+  <si>
+    <t>15.6.21</t>
+  </si>
+  <si>
+    <t>Try,catch,interface,abstraction programs</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,11 +1085,21 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>SlNo</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>Try,catch,interface,abstraction programs</t>
+  </si>
+  <si>
+    <t>16.6.21</t>
+  </si>
+  <si>
+    <t>Internal java training</t>
+  </si>
+  <si>
+    <t>Learnt detailed concepts of HTML,CSS ,thread concepts</t>
+  </si>
+  <si>
+    <t>practised html,exception handling,multithread</t>
   </si>
 </sst>
 </file>
@@ -806,7 +818,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,18 +1114,32 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>SlNo</t>
   </si>
@@ -191,6 +191,27 @@
   </si>
   <si>
     <t>practised html,exception handling,multithread</t>
+  </si>
+  <si>
+    <t>17.6.21</t>
+  </si>
+  <si>
+    <t>Refreshing the oops concepts and thread and exception</t>
+  </si>
+  <si>
+    <t>2.5 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPM </t>
+  </si>
+  <si>
+    <t>Learnt about jpbm concepts</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>Installation of software of JBPM</t>
   </si>
 </sst>
 </file>
@@ -818,7 +839,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,25 +1163,45 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>SlNo</t>
   </si>
@@ -212,6 +212,24 @@
   </si>
   <si>
     <t>Installation of software of JBPM</t>
+  </si>
+  <si>
+    <t>18.6.21</t>
+  </si>
+  <si>
+    <t>collections using arraylist</t>
+  </si>
+  <si>
+    <t>JBPM</t>
+  </si>
+  <si>
+    <t>creating the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practising the JBPM </t>
   </si>
 </sst>
 </file>
@@ -838,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,25 +1222,45 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>SlNo</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t xml:space="preserve">practising the JBPM </t>
+  </si>
+  <si>
+    <t>22.6.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practicing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refereshing the HTML AND CSS </t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>Refreshing core java concepts</t>
   </si>
 </sst>
 </file>
@@ -857,7 +872,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,25 +1278,43 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>SlNo</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Refreshing core java concepts</t>
+  </si>
+  <si>
+    <t>21.6.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning </t>
+  </si>
+  <si>
+    <t>Login with  different user,learning json concept</t>
+  </si>
+  <si>
+    <t>installing maven dependecy in eclipse and how to use</t>
+  </si>
+  <si>
+    <t>java arraylist using hashset,generic classs,difference between hash set and linked hashset</t>
   </si>
 </sst>
 </file>
@@ -871,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>71</v>
@@ -1317,25 +1332,45 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>SlNo</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>java arraylist using hashset,generic classs,difference between hash set and linked hashset</t>
+  </si>
+  <si>
+    <t>23.6.21</t>
+  </si>
+  <si>
+    <t>Practising</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>java program using treeset in diff methods</t>
   </si>
 </sst>
 </file>
@@ -887,7 +899,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,18 +1385,32 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>SlNo</t>
   </si>
@@ -272,6 +272,36 @@
   </si>
   <si>
     <t>java program using treeset in diff methods</t>
+  </si>
+  <si>
+    <t>25.6.21</t>
+  </si>
+  <si>
+    <t>collections-treemap,servelt basics</t>
+  </si>
+  <si>
+    <t>learnt about variable creation and gateways, to excute</t>
+  </si>
+  <si>
+    <t>practise</t>
+  </si>
+  <si>
+    <t>practicing the jbpm variables</t>
+  </si>
+  <si>
+    <t>26.6.21</t>
+  </si>
+  <si>
+    <t>JPBM</t>
+  </si>
+  <si>
+    <t>practicing the jbpm variables,gateways,embedded process,resuable process .Task based on the resuable process to sdet variable from one to another</t>
+  </si>
+  <si>
+    <t>task on tree map</t>
+  </si>
+  <si>
+    <t>html and css</t>
   </si>
 </sst>
 </file>
@@ -899,7 +929,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1393,9 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>78</v>
       </c>
@@ -1413,46 +1445,88 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>SlNo</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>html and css</t>
+  </si>
+  <si>
+    <t>JAVA</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,9 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>93</v>
       </c>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>SlNo</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>JAVA</t>
+  </si>
+  <si>
+    <t>28.6.21</t>
+  </si>
+  <si>
+    <t>Multiple instance and different user task allocation</t>
+  </si>
+  <si>
+    <t>jbpm tasks</t>
   </si>
 </sst>
 </file>
@@ -931,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="3">
+      <c r="F36" s="13">
         <v>2.5</v>
       </c>
     </row>
@@ -1460,7 +1469,7 @@
       <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1473,7 +1482,7 @@
       <c r="E38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1486,7 +1495,7 @@
       <c r="E39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1503,7 +1512,7 @@
       <c r="E40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1516,7 +1525,7 @@
       <c r="E41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="13">
         <v>1.5</v>
       </c>
     </row>
@@ -1529,23 +1538,39 @@
       <c r="E42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="2">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="13">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -313,7 +313,7 @@
     <t>Multiple instance and different user task allocation</t>
   </si>
   <si>
-    <t>jbpm tasks</t>
+    <t>jbpm tasks and userlogin</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -313,7 +313,7 @@
     <t>Multiple instance and different user task allocation</t>
   </si>
   <si>
-    <t>jbpm tasks and userlogin</t>
+    <t>jbpm tasks and userlogin task</t>
   </si>
 </sst>
 </file>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>SlNo</t>
   </si>
@@ -314,6 +314,30 @@
   </si>
   <si>
     <t>jbpm tasks and userlogin task</t>
+  </si>
+  <si>
+    <t>29.6.21</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>BASICS NEEDS OF SERVER AND SPRING BOOT</t>
+  </si>
+  <si>
+    <t>sample program for servelt</t>
+  </si>
+  <si>
+    <t>basics of timers,start events,intermediate signals</t>
+  </si>
+  <si>
+    <t>Jbpm task and with different methods</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>installing the software</t>
   </si>
 </sst>
 </file>
@@ -941,7 +965,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,39 +1597,73 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>SlNo</t>
   </si>
@@ -338,6 +338,33 @@
   </si>
   <si>
     <t>installing the software</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>Servlet login page design</t>
+  </si>
+  <si>
+    <t>30.6.21</t>
+  </si>
+  <si>
+    <t>Depndence injection,IOC</t>
+  </si>
+  <si>
+    <t>Maven project,Container</t>
+  </si>
+  <si>
+    <t>Jbpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signals practicing </t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Jdbc  basic learning</t>
   </si>
 </sst>
 </file>
@@ -626,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -682,6 +709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1639,7 @@
       <c r="E45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="13">
         <v>1.5</v>
       </c>
     </row>
@@ -1622,7 +1652,7 @@
       <c r="E46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1635,7 +1665,7 @@
       <c r="E47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1648,7 +1678,7 @@
       <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="13">
         <v>6.5</v>
       </c>
     </row>
@@ -1661,44 +1691,78 @@
       <c r="E49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
   <si>
     <t>SlNo</t>
   </si>
@@ -365,6 +365,33 @@
   </si>
   <si>
     <t>Jdbc  basic learning</t>
+  </si>
+  <si>
+    <t>1.7.21</t>
+  </si>
+  <si>
+    <t>Learnt rest task and installing</t>
+  </si>
+  <si>
+    <t>learning jdbc vedios,servlet</t>
+  </si>
+  <si>
+    <t>java spring framwork and mvc but got error</t>
+  </si>
+  <si>
+    <t>java servlet-tomacat error and resolve</t>
+  </si>
+  <si>
+    <t>JDBC datalocked insql commandto rectify</t>
+  </si>
+  <si>
+    <t>jdbc  fetch data from db using eclipse and installing jar files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM and revising,installing the spring boot </t>
+  </si>
+  <si>
+    <t>JBPM training</t>
   </si>
 </sst>
 </file>
@@ -670,6 +697,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -709,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,7 +1022,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,13 +1036,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1064,7 +1091,7 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1075,7 +1102,7 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -1084,10 +1111,10 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1132,7 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1118,7 +1145,7 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -1127,11 +1154,11 @@
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1142,9 +1169,9 @@
       <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -1702,10 +1729,10 @@
       <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F50" s="13">
@@ -1715,10 +1742,10 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="15" t="s">
         <v>109</v>
       </c>
       <c r="F51" s="13">
@@ -1728,10 +1755,10 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F52" s="13">
@@ -1765,53 +1792,91 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="E58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="E60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="E61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -2434,13 +2499,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>SlNo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>JBPM training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 hr</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
   <dimension ref="B1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,8 +1877,8 @@
       <c r="E61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="13">
-        <v>1</v>
+      <c r="F61" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_June_2021 - xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>SlNo</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 1 hr</t>
+  </si>
+  <si>
+    <t>DHJFKGJKLL;</t>
+  </si>
+  <si>
+    <t>DFU</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,8 +1904,12 @@
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
